--- a/documents/Risk-Management.xlsx
+++ b/documents/Risk-Management.xlsx
@@ -134,9 +134,6 @@
     <t>Update versions only after communicating it</t>
   </si>
   <si>
-    <t>SimulationCraft needs too much resources</t>
-  </si>
-  <si>
     <t>Too much cpu and ram load</t>
   </si>
   <si>
@@ -144,13 +141,16 @@
   </si>
   <si>
     <t>Host on powerful server</t>
+  </si>
+  <si>
+    <t>SimulationCraft needs too many resources</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +161,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -187,10 +196,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -505,207 +515,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.46484375" customWidth="1"/>
+    <col min="1" max="1" width="37.59765625" customWidth="1"/>
     <col min="2" max="2" width="34.86328125" customWidth="1"/>
     <col min="3" max="3" width="30.46484375" customWidth="1"/>
+    <col min="6" max="6" width="47.86328125" customWidth="1"/>
     <col min="7" max="7" width="46.86328125" customWidth="1"/>
     <col min="8" max="8" width="26.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
+      <c r="E4" s="1">
         <v>0.25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E5" s="1">
         <v>0.2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E6" s="1">
         <v>0.2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1">
+      <c r="E7" s="1">
         <v>0.1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1">
+      <c r="E8" s="1">
         <v>0.1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1">
+      <c r="E10" s="1">
         <v>0.05</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G10" t="s">
         <v>31</v>
       </c>
     </row>
